--- a/xlsx/BanReservas_output.xlsx
+++ b/xlsx/BanReservas_output.xlsx
@@ -7,20 +7,1457 @@
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <sheets/>
+  <sheets>
+    <sheet name="Page 1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Page 2" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="Page 3" sheetId="3" r:id="rId3" state="visible"/>
+    <sheet name="Page 4" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="Page 5" sheetId="5" r:id="rId5" state="visible"/>
+    <sheet name="Page 6" sheetId="6" r:id="rId6" state="visible"/>
+    <sheet name="Page 7" sheetId="7" r:id="rId7" state="visible"/>
+    <sheet name="Page 8" sheetId="8" r:id="rId8" state="visible"/>
+    <sheet name="Page 9" sheetId="9" r:id="rId9" state="visible"/>
+    <sheet name="Page 10" sheetId="10" r:id="rId10" state="visible"/>
+  </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>Cuentas de Ahorros</t>
+  </si>
+  <si>
+    <t>Cuenta de Ahorros en Pesos</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Cargo por cheque depositado devuelto</t>
+  </si>
+  <si>
+    <t>RD$ 350.00</t>
+  </si>
+  <si>
+    <t>Monto de apertura</t>
+  </si>
+  <si>
+    <t>RD$ 500.00</t>
+  </si>
+  <si>
+    <t>Cargo por retiros sin libreta en ventanilla menores de RD$ 10,000.00</t>
+  </si>
+  <si>
+    <t>RD$ 25.00</t>
+  </si>
+  <si>
+    <t>Balance mínimo</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance menor a RD$ 10,000.00 mensuales</t>
+  </si>
+  <si>
+    <t>1% anual</t>
+  </si>
+  <si>
+    <t>Cargo mensual si está por debajo del balance mínimo</t>
+  </si>
+  <si>
+    <t>RD$ 35.00</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance mayor a RD$ 10,000.00 mensuales</t>
+  </si>
+  <si>
+    <t>2% anual</t>
+  </si>
+  <si>
+    <t>Comisión uso de red</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Cargo por retiros sin libreta en ventanilla menores de RD$10,000.00</t>
+  </si>
+  <si>
+    <t>Cuenta Nómina Electrónica</t>
+  </si>
+  <si>
+    <t>Comisión por cuenta sin movimiento más de 180 días y menos de 3 años</t>
+  </si>
+  <si>
+    <t>RD$ 100.00</t>
+  </si>
+  <si>
+    <t>RD$ 0.00</t>
+  </si>
+  <si>
+    <t>Cargo por cierre de cuenta antes de un año</t>
+  </si>
+  <si>
+    <t>RD$ 150.00</t>
+  </si>
+  <si>
+    <t>Cargo por reposición de libreta perdida o deteriorada</t>
+  </si>
+  <si>
+    <t>RD$ 200.00</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance menor a RD$10,000.00 mensuales</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance mayor a RD$10,000.00 mensuales</t>
+  </si>
+  <si>
+    <t>Cargo por retiros en ventanilla menores de RD$ 10,000.00</t>
+  </si>
+  <si>
+    <t>Retiro de ahorros mayores a RD$250,000.00</t>
+  </si>
+  <si>
+    <t>0.20% del excedente por</t>
+  </si>
+  <si>
+    <t>cada RD$ 100,000.00
+adicional</t>
+  </si>
+  <si>
+    <t>Cuenta de Ahorro Preserva</t>
+  </si>
+  <si>
+    <t>Cuenta Ahorro Más</t>
+  </si>
+  <si>
+    <t>RD$ 1,000.00</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance o saldo mínimo RD$ 1,000.00</t>
+  </si>
+  <si>
+    <t>Tasa máxima 2%, tasa mínima 1%</t>
+  </si>
+  <si>
+    <t>RD$ 50.00</t>
+  </si>
+  <si>
+    <t>RD$ 30.00</t>
+  </si>
+  <si>
+    <t>Cuenta de Ahorros en Dólares</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance promedio mayor a RD$1,000.00 mensuales</t>
+  </si>
+  <si>
+    <t>Desde 1% hasta 2.25% anual</t>
+  </si>
+  <si>
+    <t>US$ 300.00</t>
+  </si>
+  <si>
+    <t>Cantidad de retiros, compras y transferencias libre de cargo</t>
+  </si>
+  <si>
+    <t>3 mensuales</t>
+  </si>
+  <si>
+    <t>US$ 200.00</t>
+  </si>
+  <si>
+    <t>Retiros adicionales</t>
+  </si>
+  <si>
+    <t>US$ 50.00</t>
+  </si>
+  <si>
+    <t>Retiro de ahorros mayores a RD$ 250,000.00</t>
+  </si>
+  <si>
+    <t>0.20% del excedente porcada RD$ 100,000.00</t>
+  </si>
+  <si>
+    <t>US$ 10.00</t>
+  </si>
+  <si>
+    <t>adicional</t>
+  </si>
+  <si>
+    <t>Cuenta de Ahorro Infantil</t>
+  </si>
+  <si>
+    <t>Cargo por depósito incorrecto</t>
+  </si>
+  <si>
+    <t>US$ 5.00</t>
+  </si>
+  <si>
+    <t>Cargo por devolución de cheque con doble endoso no autorizado</t>
+  </si>
+  <si>
+    <t>32//1111</t>
+  </si>
+  <si>
+    <t>Cantidad de retiros libre de cargo</t>
+  </si>
+  <si>
+    <t>4 mensuales</t>
+  </si>
+  <si>
+    <t>US$ 20.00</t>
+  </si>
+  <si>
+    <t>Cargo por retención de estados</t>
+  </si>
+  <si>
+    <t>Pago de intereses sobre saldos promedios (semestrales)</t>
+  </si>
+  <si>
+    <t>Cargo por suspensión pago de cheque</t>
+  </si>
+  <si>
+    <t>RD$ 125.00</t>
+  </si>
+  <si>
+    <t>Transferencia contra depósitos en efectivo, antes de 3 días del depósito</t>
+  </si>
+  <si>
+    <t>US$ 0.30% x días a usar tránsito</t>
+  </si>
+  <si>
+    <t>Cargo por chequeras personales (6 talonarios de 25 ck. c/u)</t>
+  </si>
+  <si>
+    <t>RD$ 529.00</t>
+  </si>
+  <si>
+    <t>Cuenta de Ahorros en Euros</t>
+  </si>
+  <si>
+    <t>Cargo por pago en efectivo de cheques por el exceso de
+RD$ 250,000.00 en ventanilla</t>
+  </si>
+  <si>
+    <t>0.20% del excedente por cada
+RD$ 100,000.00 adicional</t>
+  </si>
+  <si>
+    <t>EU$ 200.00</t>
+  </si>
+  <si>
+    <t>Comisión por tasa de interés por sobregiro</t>
+  </si>
+  <si>
+    <t>130% anual</t>
+  </si>
+  <si>
+    <t>Comisión por uso fondos en tránsito</t>
+  </si>
+  <si>
+    <t>96% anual</t>
+  </si>
+  <si>
+    <t>EU$ 10.00</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Más</t>
+  </si>
+  <si>
+    <t>EU$ 7.00</t>
+  </si>
+  <si>
+    <t>RD$ 2,000.00</t>
+  </si>
+  <si>
+    <t>EU$ 40.00</t>
+  </si>
+  <si>
+    <t>Balance mínimo promedio</t>
+  </si>
+  <si>
+    <t>RD$ 10,000.00</t>
+  </si>
+  <si>
+    <t>Cargo mensual por debajo del balance promedio mínimo</t>
+  </si>
+  <si>
+    <t>RD$ 200.00 (*)</t>
+  </si>
+  <si>
+    <t>EU$ 5.00</t>
+  </si>
+  <si>
+    <t>Comisión mensual por manejo de cuenta</t>
+  </si>
+  <si>
+    <t>Transferencia contra depósitos en efectivo, antes de 15 días del depósito</t>
+  </si>
+  <si>
+    <t>EU$ 0.8333 x días a usar tránsito</t>
+  </si>
+  <si>
+    <t>Cargo por cheque depositado</t>
+  </si>
+  <si>
+    <t>EU$ 3.50</t>
+  </si>
+  <si>
+    <t>Cargo por certificación de cheques</t>
+  </si>
+  <si>
+    <t>Cargo por devolución de cheques con doble endoso no autorizado</t>
+  </si>
+  <si>
+    <t>Cargo por cheque devuelto por insuficiencia de fondos</t>
+  </si>
+  <si>
+    <t>Cargo por cheque pagado con insuficiencia de fondos</t>
+  </si>
+  <si>
+    <t>EU$ 20.00</t>
+  </si>
+  <si>
+    <t>Cargo por reimpresión de estados de cuenta (por página)</t>
+  </si>
+  <si>
+    <t>0.02% anual</t>
+  </si>
+  <si>
+    <t>Cuentas Corrientes</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Personal</t>
+  </si>
+  <si>
+    <t>Cargo por pago en efectivo de cheques por el exceso de
+RD$250,000.00 en ventanilla</t>
+  </si>
+  <si>
+    <t>0.20% del excedente por
+cada RD$100,000.00 adicional</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance promedio mayor a RD$10,000.00</t>
+  </si>
+  <si>
+    <t>De 0.25% hasta 2%</t>
+  </si>
+  <si>
+    <t>Uso Tarjeta de Débito</t>
+  </si>
+  <si>
+    <t>RD$30.00 (*)</t>
+  </si>
+  <si>
+    <t>(*) Estas comisiones solo serán cobradas si el cliente no cumple con el balance mínimo requerido.</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>324///111111</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Empresarial</t>
+  </si>
+  <si>
+    <t>Cargo por pago en efectivo de cheques por el exceso</t>
+  </si>
+  <si>
+    <t>0.20% del excedente por cada</t>
+  </si>
+  <si>
+    <t>de RD$ 250,000.00 en ventanilla</t>
+  </si>
+  <si>
+    <t>RD$ 100,000.00 adicional</t>
+  </si>
+  <si>
+    <t>RD$ 7,000.00</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Productiva (Banca Empresarial)</t>
+  </si>
+  <si>
+    <t>Comisión mensual por manejo de cuenta empresarial</t>
+  </si>
+  <si>
+    <t>RD$ 175.00</t>
+  </si>
+  <si>
+    <t>RD$ 25,000.00</t>
+  </si>
+  <si>
+    <t>RD$ 500,000.00</t>
+  </si>
+  <si>
+    <t>RD$ 250.00 (*)</t>
+  </si>
+  <si>
+    <t>Comisión por retención de estados</t>
+  </si>
+  <si>
+    <t>RD$ 120.00</t>
+  </si>
+  <si>
+    <t>0.20% del excedente por cada
+RD$100,000.00 adicional</t>
+  </si>
+  <si>
+    <t>Comisión de tasa de interés por sobregiro</t>
+  </si>
+  <si>
+    <t>Cargo por depósito incorrectoCargo por retención de estados</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Más Empresarial</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance promedio mayor aRD$500,000.01 mensuales</t>
+  </si>
+  <si>
+    <t>Desde 0.5% hasta 2.5%</t>
+  </si>
+  <si>
+    <t>RD$ 75,000.00</t>
+  </si>
+  <si>
+    <t>RD$ 250.00(*)</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente Productiva (Banca Corporativa)</t>
+  </si>
+  <si>
+    <t>RD$ 2,500,000.00</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance promedio mayor a RD$75,000.01</t>
+  </si>
+  <si>
+    <t>De 0.25% hasta 2.5%</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>5324///111111</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>Cheques en Dólares</t>
+  </si>
+  <si>
+    <t>Suspensión pago cheques en dólares o Stop Payment</t>
+  </si>
+  <si>
+    <t>US$ 25.00</t>
+  </si>
+  <si>
+    <t>Comisión por reintegro de cheques en dólares</t>
+  </si>
+  <si>
+    <t>Comisión por copia de cheques en dólares con más de dos</t>
+  </si>
+  <si>
+    <t>meses y menos de un año de emitido</t>
+  </si>
+  <si>
+    <t>US$ 15.00</t>
+  </si>
+  <si>
+    <t>Comisión por copia de cheques en dólares con más de
+un año emitidos</t>
+  </si>
+  <si>
+    <t>Pago de intereses por balance promedio mayor</t>
+  </si>
+  <si>
+    <t>Desde 0.80% hasta 4% anual</t>
+  </si>
+  <si>
+    <t>Negocios Internacionales</t>
+  </si>
+  <si>
+    <t>a RD$ 2,500,000.01 mensuales</t>
+  </si>
+  <si>
+    <t>Transferencias</t>
+  </si>
+  <si>
+    <t>Transferencias enviadas</t>
+  </si>
+  <si>
+    <t>Cargo por tasa de interés por sobregiro</t>
+  </si>
+  <si>
+    <t>Transferencias recibidas del extranjero en dólares</t>
+  </si>
+  <si>
+    <t>US$ 7.00</t>
+  </si>
+  <si>
+    <t>Transferencias recibidas del extranjero en euros</t>
+  </si>
+  <si>
+    <t>EUR$ 7.00</t>
+  </si>
+  <si>
+    <t>Comisión por enmienda / Reenvío e investigación
+de transferencias enviadas</t>
+  </si>
+  <si>
+    <t>Certificados Financieros</t>
+  </si>
+  <si>
+    <t>Comisión por devolución de transferencias recibidas</t>
+  </si>
+  <si>
+    <t>Penalidad por cancelación anticipada</t>
+  </si>
+  <si>
+    <t>Cartas de Crédito de Importación</t>
+  </si>
+  <si>
+    <t>Durante los primeros 30 días</t>
+  </si>
+  <si>
+    <t>- 1%.</t>
+  </si>
+  <si>
+    <t>Aceptación</t>
+  </si>
+  <si>
+    <t>3% anual, mínimo US$50.00</t>
+  </si>
+  <si>
+    <t>De 61 a 90 días</t>
+  </si>
+  <si>
+    <t>Desde 0.48% hasta 3%</t>
+  </si>
+  <si>
+    <t>1.5% hasta 90 días, 0.5% por</t>
+  </si>
+  <si>
+    <t>De 91 a 120 días</t>
+  </si>
+  <si>
+    <t>Desde 0.28% hasta 2%.</t>
+  </si>
+  <si>
+    <t>Apertura (hasta 90 días) sin depósito previo</t>
+  </si>
+  <si>
+    <t>cada 30 días o fracción días</t>
+  </si>
+  <si>
+    <t>De 121 días en adelante</t>
+  </si>
+  <si>
+    <t>Desde 0.44% hasta 2%.</t>
+  </si>
+  <si>
+    <t>Apertura (hasta 90 días) prepagadas</t>
+  </si>
+  <si>
+    <t>1%, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Porcentaje reducido a los intereses ya pagados de acuerdo a la permanencia de la inversión.</t>
+  </si>
+  <si>
+    <t>Cancelación antes de su vencimiento</t>
+  </si>
+  <si>
+    <t>Préstamos</t>
+  </si>
+  <si>
+    <t>Costo Swift Apertura</t>
+  </si>
+  <si>
+    <t>Todos los préstamos</t>
+  </si>
+  <si>
+    <t>Costo Swift Enmienda</t>
+  </si>
+  <si>
+    <t>RD$ 250.00</t>
+  </si>
+  <si>
+    <t>Cargo por mora</t>
+  </si>
+  <si>
+    <t>Enmiendas por aumento de valor – prepagadas</t>
+  </si>
+  <si>
+    <t>1% a la tasa de venta,mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>e-Factoring</t>
+  </si>
+  <si>
+    <t>Enmiendas por aumentar valor – sin prepago</t>
+  </si>
+  <si>
+    <t>1.5% a la tasa de venta,mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>1/4 del 1%, por cada 30 días</t>
+  </si>
+  <si>
+    <t>Factoring local y gubernamental</t>
+  </si>
+  <si>
+    <t>1.30% fijo por factura al vendedor</t>
+  </si>
+  <si>
+    <t>Enmiendas por extensión de vencimiento –prepagadas</t>
+  </si>
+  <si>
+    <t>adicionales o fracción,
+mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Factoring de exportación</t>
+  </si>
+  <si>
+    <t>1.80% fijo por factura al vendedor</t>
+  </si>
+  <si>
+    <t>1/2 del 1% por cada 30 días</t>
+  </si>
+  <si>
+    <t>Comisión al comprador(en caso no sea Banreservas)</t>
+  </si>
+  <si>
+    <t>0.80% fijo por factura</t>
+  </si>
+  <si>
+    <t>Enmiendas por extensión de vencimiento – sin depósito previo</t>
+  </si>
+  <si>
+    <t>adicionales o fracción,mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Franqueo</t>
+  </si>
+  <si>
+    <t>Otras enmiendas</t>
+  </si>
+  <si>
+    <t>Mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>53264///111111</t>
+  </si>
+  <si>
+    <t>Cartas de Crédito de Exportación</t>
+  </si>
+  <si>
+    <t>Costo del cable</t>
+  </si>
+  <si>
+    <t>RD$ 300.00</t>
+  </si>
+  <si>
+    <t>Aviso</t>
+  </si>
+  <si>
+    <t>US$ 100.00</t>
+  </si>
+  <si>
+    <t>Del extranjero (importación)</t>
+  </si>
+  <si>
+    <t>3/4 del 1%, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Enmiendas o cancelaciones</t>
+  </si>
+  <si>
+    <t>US$ 75.00</t>
+  </si>
+  <si>
+    <t>Fotocopias y franqueo</t>
+  </si>
+  <si>
+    <t>Comisión por negociación</t>
+  </si>
+  <si>
+    <t>1/4 del 1%, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Fianzas</t>
+  </si>
+  <si>
+    <t>Cartas de Crédito Locales</t>
+  </si>
+  <si>
+    <t>Por derecho de impuestos – Apertura</t>
+  </si>
+  <si>
+    <t>4% anual, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Por falta de documentos – Apertura</t>
+  </si>
+  <si>
+    <t>1.5%, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Por cada 30 días adicionales – Apertura</t>
+  </si>
+  <si>
+    <t>Garantías</t>
+  </si>
+  <si>
+    <t>Avales otorgados</t>
+  </si>
+  <si>
+    <t>4% negociable, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Garantías de anticipo</t>
+  </si>
+  <si>
+    <t>1% por cada 90 días o 4% anual,</t>
+  </si>
+  <si>
+    <t>mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Enmienda por aumento de valor – prepagadas</t>
+  </si>
+  <si>
+    <t>Garantías de fiel cumplimiento</t>
+  </si>
+  <si>
+    <t>1% por cada 90 días o 4% anual,mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Enmienda por aumento de valor - sin prepago</t>
+  </si>
+  <si>
+    <t>1.5%, mínimo US$50.00</t>
+  </si>
+  <si>
+    <t>1/2 del 1% por cada 30 díasadicionales o fracción,</t>
+  </si>
+  <si>
+    <t>Garantías de licitación o mantenimiento de oferta</t>
+  </si>
+  <si>
+    <t>1% por cada 90 días o 4% anual,
+mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>1/4 del 1% por cada 30 días</t>
+  </si>
+  <si>
+    <t>Otros servicios</t>
+  </si>
+  <si>
+    <t>Enmiendas por extensión de vencimiento - prepagadas</t>
+  </si>
+  <si>
+    <t>adicionaleso fracción,</t>
+  </si>
+  <si>
+    <t>Servicios Diversos</t>
+  </si>
+  <si>
+    <t>Mínimo RD$ 2,000.00</t>
+  </si>
+  <si>
+    <t>Cargo anual por servicio de depósitos nocturnos</t>
+  </si>
+  <si>
+    <t>Cartas de Crédito de Importación sin obligación eventual</t>
+  </si>
+  <si>
+    <t>Cargo por cartas consulares y de referencias</t>
+  </si>
+  <si>
+    <t>Apertura (hasta 90 días)</t>
+  </si>
+  <si>
+    <t>Cargo por certificación de saldos</t>
+  </si>
+  <si>
+    <t>Aumento</t>
+  </si>
+  <si>
+    <t>Cargo por copia de documentos microfilmados (por página)</t>
+  </si>
+  <si>
+    <t>Extensión vencimiento por cada 30 días adicionales</t>
+  </si>
+  <si>
+    <t>1/16 del 1%, mínimo US$ 50.00</t>
+  </si>
+  <si>
+    <t>Cargo por duplicado de llaves depósitos nocturnos</t>
+  </si>
+  <si>
+    <t>Costo Swift</t>
+  </si>
+  <si>
+    <t>Cargo por transferencias entre cuentas realizadas manualmente</t>
+  </si>
+  <si>
+    <t>Cargo por venta cheque de administración</t>
+  </si>
+  <si>
+    <t>Cartas de Crédito Stand By</t>
+  </si>
+  <si>
+    <t>Venta de cheque de administración para pago de impuestos</t>
+  </si>
+  <si>
+    <t>Carta de Crédito Stand By</t>
+  </si>
+  <si>
+    <t>3.5% anual, mínimo US$ 75.00</t>
+  </si>
+  <si>
+    <t>Comisión por fotocopias de documentos (por página)</t>
+  </si>
+  <si>
+    <t>RD$ 10.00</t>
+  </si>
+  <si>
+    <t>Avales Otorgados</t>
+  </si>
+  <si>
+    <t>Costo de valija de depósitos noturnos</t>
+  </si>
+  <si>
+    <t>RD$ 800.00</t>
+  </si>
+  <si>
+    <t>Cargo por envío entre oficinas</t>
+  </si>
+  <si>
+    <t>1/4 del 1%, mínimo RD$ 50.00</t>
+  </si>
+  <si>
+    <t>Cobranzas</t>
+  </si>
+  <si>
+    <t>Transferencias Interbancarias ACH</t>
+  </si>
+  <si>
+    <t>1/2 del 1% a la tasa del mercado,</t>
+  </si>
+  <si>
+    <t>Transferencias inmediatas (LBTR) en RD$</t>
+  </si>
+  <si>
+    <t>Al extranjero (exportación)</t>
+  </si>
+  <si>
+    <t>mínimo US$ 100.00</t>
+  </si>
+  <si>
+    <t>Transferencias inmediatas (LBTR) en US$</t>
+  </si>
+  <si>
+    <t>Cobranzas transferidas a otros bancos</t>
+  </si>
+  <si>
+    <t>Costo del Courier</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>537264///111111</t>
+  </si>
+  <si>
+    <t>Cajas de Seguridad</t>
+  </si>
+  <si>
+    <t>Cargo por transacción incompleta</t>
+  </si>
+  <si>
+    <t>RD$50.00</t>
+  </si>
+  <si>
+    <t>Pequeña 51/2 x 3 x 211/2 pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 2,500.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por consulta de comprobante (voucher)</t>
+  </si>
+  <si>
+    <t>RD$75.00 y US$15.00</t>
+  </si>
+  <si>
+    <t>Pequeña 51/2 x 4 x 211/2 pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 2,800.00 mensual</t>
+  </si>
+  <si>
+    <t>Tarjeta de Débito Banreservas en Dólares</t>
+  </si>
+  <si>
+    <t>Pequeña 51/2 x 5 x 211/2 pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 3,000.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por emisión</t>
+  </si>
+  <si>
+    <t>Mediana 111/4x 3 x 211/4pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 3,500.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por reemplazo</t>
+  </si>
+  <si>
+    <t>Mediana 111/4x 4 x 211/4pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 3,800.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo uso de cajeros automáticos otros bancos</t>
+  </si>
+  <si>
+    <t>US$ 1.00</t>
+  </si>
+  <si>
+    <t>Grande 11 1/4 x 5 x 211/2 pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 4,000.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por retiro / consulta en cajeros automáticos bancos locales</t>
+  </si>
+  <si>
+    <t>US$ 3.00</t>
+  </si>
+  <si>
+    <t>Grande 111/4 x 9 x 211/2 pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 4,500.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por retiro en cajeros automáticos red internacional</t>
+  </si>
+  <si>
+    <t>Grande 111/4x 11 x 211/2pulgadas</t>
+  </si>
+  <si>
+    <t>RD$ 4,800.00 mensual</t>
+  </si>
+  <si>
+    <t>Cargo por consulta en cajeros automáticos red internacional</t>
+  </si>
+  <si>
+    <t>Pérdida de llave</t>
+  </si>
+  <si>
+    <t>Costo del cerrajero</t>
+  </si>
+  <si>
+    <t>Cambio de cerradura</t>
+  </si>
+  <si>
+    <t>Duplicado de llaves</t>
+  </si>
+  <si>
+    <t>Tarjetas de Crédito Personales</t>
+  </si>
+  <si>
+    <t>Banreservas Clásica Local</t>
+  </si>
+  <si>
+    <t>Tarjetas de Débito</t>
+  </si>
+  <si>
+    <t>Tarjeta de Débito Banreservas Standard</t>
+  </si>
+  <si>
+    <t>RD$ 400.00</t>
+  </si>
+  <si>
+    <t>Cargo por emisión adicional</t>
+  </si>
+  <si>
+    <t>25% del costo emisión tarjetaprincipal</t>
+  </si>
+  <si>
+    <t>RD$200.00</t>
+  </si>
+  <si>
+    <t>Cargo por renovación principal</t>
+  </si>
+  <si>
+    <t>Cargo mensual uso tarjeta de débito</t>
+  </si>
+  <si>
+    <t>RD$30.00</t>
+  </si>
+  <si>
+    <t>Cargo por renovación adicional</t>
+  </si>
+  <si>
+    <t>Anualidad tarjeta de débito</t>
+  </si>
+  <si>
+    <t>RD$20.00</t>
+  </si>
+  <si>
+    <t>Cargo por cobertura de seguro principal</t>
+  </si>
+  <si>
+    <t>US$5.00</t>
+  </si>
+  <si>
+    <t>Comisión por sobregiro</t>
+  </si>
+  <si>
+    <t>US$3.00</t>
+  </si>
+  <si>
+    <t>Comisión por mora</t>
+  </si>
+  <si>
+    <t>8% del monto vencido,</t>
+  </si>
+  <si>
+    <t>mínimo RD$ 150.00</t>
+  </si>
+  <si>
+    <t>Tasa de interés anual (si opta por financiamiento)</t>
+  </si>
+  <si>
+    <t>Pesos: 60%</t>
+  </si>
+  <si>
+    <t>Tarjeta de Débito Banreservas Gold</t>
+  </si>
+  <si>
+    <t>Visa y Mastercard Multimoneda</t>
+  </si>
+  <si>
+    <t>25% del costo emisión tarjeta
+principal</t>
+  </si>
+  <si>
+    <t>Cargo por cobertura de seguro adicional</t>
+  </si>
+  <si>
+    <t>7/11</t>
+  </si>
+  <si>
+    <t>RD$ 750.00</t>
+  </si>
+  <si>
+    <t>RD$ 600.00</t>
+  </si>
+  <si>
+    <t>Visa Clásica y Mastercard Standard</t>
+  </si>
+  <si>
+    <t>RD$ 300.00 y US$ 10.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo</t>
+  </si>
+  <si>
+    <t>25% del costo emisión tarjeta</t>
+  </si>
+  <si>
+    <t>RD$ 400.00 y US$ 20.00</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>Pesos: 60% / Dólares: 48%</t>
+  </si>
+  <si>
+    <t>Visa Platinum Expression</t>
+  </si>
+  <si>
+    <t>RD$ 1,500.00</t>
+  </si>
+  <si>
+    <t>RD$ 350.00 y US$ 7.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo
+RD$ 200.00 y US$ 5.00</t>
+  </si>
+  <si>
+    <t>Visa / Mastercard / Mastercard Multimoneda Gold</t>
+  </si>
+  <si>
+    <t>RD$ 900.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimoRD$ 400.00</t>
+  </si>
+  <si>
+    <t>RD$ 1,200.00</t>
+  </si>
+  <si>
+    <t>Visa Platinum Universe</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo
+RD$ 300.00 y US$ 10.00</t>
+  </si>
+  <si>
+    <t>Mastercard Platinum</t>
+  </si>
+  <si>
+    <t>Cargo por sobregiro</t>
+  </si>
+  <si>
+    <t>RD$ 300.00 / US$ 10.00</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <t>1532941///0/111/1111111</t>
+  </si>
+  <si>
+    <t>Visa Infinite</t>
+  </si>
+  <si>
+    <t>Shellcard</t>
+  </si>
+  <si>
+    <t>RD$ 5,000.00</t>
+  </si>
+  <si>
+    <t>RD$ 75.00</t>
+  </si>
+  <si>
+    <t>RD$ 400.00 y US$ 8.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo
+RD$ 500.00 y US$ 20.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo
+RD$ 25.00</t>
+  </si>
+  <si>
+    <t>Pesos: 48% / Dólares: 36%</t>
+  </si>
+  <si>
+    <t>Pesos 60%</t>
+  </si>
+  <si>
+    <t>Tarjeta Preserva</t>
+  </si>
+  <si>
+    <t>Tarjetas de Crédito Empresariales</t>
+  </si>
+  <si>
+    <t>Cargo por renovación</t>
+  </si>
+  <si>
+    <t>Visa Corporativa</t>
+  </si>
+  <si>
+    <t>Cargo por cobertura de seguro</t>
+  </si>
+  <si>
+    <t>Visa Flotilla Personal</t>
+  </si>
+  <si>
+    <t>RD$ 200.00 y US$ 5.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimoRD$ 300.00 y US$20.00</t>
+  </si>
+  <si>
+    <t>Visa Empresarial</t>
+  </si>
+  <si>
+    <t>RD$ 1,400.00</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimo
+RD$ 100.00</t>
+  </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <t>15324//0/111/11111</t>
+  </si>
+  <si>
+    <t>RD$ 400.00 y US$ 10.00</t>
+  </si>
+  <si>
+    <t>mínimo RD$ 300.00 y US$ 10.00</t>
+  </si>
+  <si>
+    <t>Pesos: 54% / Dólares: 42%</t>
+  </si>
+  <si>
+    <t>Visa Negocios</t>
+  </si>
+  <si>
+    <t>Marca Compartida</t>
+  </si>
+  <si>
+    <t>Visa Adopaso</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimoRD$ 300.00 y US$ 10.00</t>
+  </si>
+  <si>
+    <t>Tasa de interés Credimás (a título personal)</t>
+  </si>
+  <si>
+    <t>24% anual</t>
+  </si>
+  <si>
+    <t>Visa Flotilla Empresarial</t>
+  </si>
+  <si>
+    <t>RD$ 100.00 y US$ 5.00</t>
+  </si>
+  <si>
+    <t>Tarifas que aplican para todos los productos de</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Reimpresión de estados de cuenta</t>
+  </si>
+  <si>
+    <t>8% del monto vencido, mínimoRD$ 250.00</t>
+  </si>
+  <si>
+    <t>Reembolso saldo vía cheque</t>
+  </si>
+  <si>
+    <t>Gestión por cobranza</t>
+  </si>
+  <si>
+    <t>Shellcard Corporativa</t>
+  </si>
+  <si>
+    <t>Costo de cartas de referencia</t>
+  </si>
+  <si>
+    <t>Costo de cartas de saldo</t>
+  </si>
+  <si>
+    <t>Exceso uso de pin (a partir tercer intento)</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>153241//0//111/1111111</t>
+  </si>
+  <si>
+    <t>RD$ 300.00 y US$ 15.00</t>
+  </si>
+  <si>
+    <t>Comisión por avance de efectivo</t>
+  </si>
+  <si>
+    <t>6% del monto del retiro</t>
+  </si>
+  <si>
+    <t>Comisión por avance de efectivo Credimás</t>
+  </si>
+  <si>
+    <t>3% del monto del retiro(*)</t>
+  </si>
+  <si>
+    <t>Cargo por cheque devuelto</t>
+  </si>
+  <si>
+    <t>RD$ 500.00 y US$ 100.00</t>
+  </si>
+  <si>
+    <t>Tasa de interés Credimás</t>
+  </si>
+  <si>
+    <t>30% anual</t>
+  </si>
+  <si>
+    <t>(*) Sólo aplica para tarjetas de crédito personales.</t>
+  </si>
+  <si>
+    <t>Beneficios Opcionales</t>
+  </si>
+  <si>
+    <t>Seguro de Accidentes Básico</t>
+  </si>
+  <si>
+    <t>RD$ 90.00</t>
+  </si>
+  <si>
+    <t>Seguro de Accidentes Premium</t>
+  </si>
+  <si>
+    <t>RD$ 360.00</t>
+  </si>
+  <si>
+    <t>De Prisa asistencia inmediata</t>
+  </si>
+  <si>
+    <t>Aero Ambulancia. Alert Plus</t>
+  </si>
+  <si>
+    <t>Desde RD$ 119.00</t>
+  </si>
+  <si>
+    <t>Aero Ambulancia. Movi Alert</t>
+  </si>
+  <si>
+    <t>Desde RD$ 49.00</t>
+  </si>
+  <si>
+    <t>Para más información:</t>
+  </si>
+  <si>
+    <t>809-960-2121 / 1-809-200-2131 (desde el interior sin cargos)</t>
+  </si>
+  <si>
+    <t>Otros Productos y Servicios</t>
+  </si>
+  <si>
+    <t>o visita nuestras oficinas.</t>
+  </si>
+  <si>
+    <t>Tarjeta de Códigos</t>
+  </si>
+  <si>
+    <t>Última revisión 22 de febrero de 2017.</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Dos primeros N/A</t>
+  </si>
+  <si>
+    <t>Cargo por emisión tercer token en adelante</t>
+  </si>
+  <si>
+    <t>RD$ 2,250.00</t>
+  </si>
+  <si>
+    <t>Datareservas</t>
+  </si>
+  <si>
+    <t>Comisión consultas y actualización de balances</t>
+  </si>
+  <si>
+    <t>Comisión balance, movimientos y fondos en tránsito</t>
+  </si>
+  <si>
+    <t>Comisión por pago de nómina</t>
+  </si>
+  <si>
+    <t>Comisión por pago a suplidores (c/u)</t>
+  </si>
+  <si>
+    <t>Comisión por transferencias de fondos (c/u)</t>
+  </si>
+  <si>
+    <t>Comisión por suspensión de cheques</t>
+  </si>
+  <si>
+    <t>Domiciliación de Pagos</t>
+  </si>
+  <si>
+    <t>Comisión mensual (incluye 500 transacciones)</t>
+  </si>
+  <si>
+    <t>Comisión por transacción adicional</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <cellXfs count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="1">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="0"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -345,4 +1782,4862 @@
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.61868978805394" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.9752408477842" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.49306358381503" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.610404624277454" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.214749999999999" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="14.214749999999999" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.214749999999999" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="14.214749999999999" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="14.214749999999999" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="14.214749999999999" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="14.214749999999999" customHeight="true">
+      <c r="A29" s="1" t="s"/>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.35982658959537" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="1" t="s"/>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="1" t="s"/>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="1" t="s"/>
+      <c r="C8" s="1" t="s"/>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="28.429499999999997" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s"/>
+      <c r="B17" s="1" t="s"/>
+      <c r="C17" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="1" t="s"/>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="28.429499999999997" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s"/>
+      <c r="B35" s="1" t="s"/>
+      <c r="C35" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.61868978805394" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.9752408477842" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" ht="14.214749999999999" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="14.214749999999999" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="14.214749999999999" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s"/>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" ht="14.214749999999999" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s"/>
+    </row>
+    <row r="29" ht="14.214749999999999" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s"/>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.25125240847784" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="14.214749999999999" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s"/>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s"/>
+      <c r="B9" s="1" t="s"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s"/>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s"/>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s"/>
+      <c r="B13" s="1" t="s"/>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" ht="14.214749999999999" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s"/>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="14.214749999999999" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s"/>
+      <c r="B17" s="1" t="s"/>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s"/>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s"/>
+      <c r="B19" s="1" t="s"/>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s"/>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s"/>
+      <c r="B21" s="1" t="s"/>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s"/>
+      <c r="B23" s="1" t="s"/>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s"/>
+      <c r="D24" s="1" t="s"/>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s"/>
+      <c r="B25" s="1" t="s"/>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" ht="14.214749999999999" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s"/>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" ht="14.214749999999999" customHeight="true">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" ht="14.214749999999999" customHeight="true">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="14.214749999999999" customHeight="true">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="14.214749999999999" customHeight="true">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="14.214749999999999" customHeight="true">
+      <c r="A43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s"/>
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s"/>
+    </row>
+    <row r="44" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A43:D43"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.25125240847784" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s"/>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s"/>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="14.214749999999999" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="1" t="s"/>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="1" t="s"/>
+      <c r="C23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="1" t="s"/>
+      <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="1" t="s"/>
+      <c r="C27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s"/>
+      <c r="B32" s="1" t="s"/>
+      <c r="C32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s"/>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.25125240847784" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s"/>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="1" t="s"/>
+      <c r="C30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s"/>
+      <c r="B31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.25125240847784" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s"/>
+      <c r="B14" s="1" t="s"/>
+      <c r="C14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="1" t="s"/>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s"/>
+      <c r="B25" s="1" t="s"/>
+      <c r="C25" s="1" t="s"/>
+      <c r="D25" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s"/>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s"/>
+      <c r="B29" s="1" t="s"/>
+      <c r="C29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true">
+      <c r="A36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="1" t="s"/>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s"/>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.35982658959537" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s"/>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s"/>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="1" t="s"/>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s"/>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s"/>
+      <c r="B10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s"/>
+      <c r="B14" s="1" t="s"/>
+      <c r="C14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s"/>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="1" t="s"/>
+      <c r="C18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s"/>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s"/>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s"/>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s"/>
+      <c r="B22" s="1" t="s"/>
+      <c r="C22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s"/>
+      <c r="B30" s="1" t="s"/>
+      <c r="C30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s"/>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s"/>
+      <c r="B32" s="1" t="s"/>
+      <c r="C32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s"/>
+      <c r="B34" s="1" t="s"/>
+      <c r="C34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s"/>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true">
+      <c r="A36" s="1" t="s"/>
+      <c r="B36" s="1" t="s"/>
+      <c r="C36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s"/>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true">
+      <c r="A38" s="1" t="s"/>
+      <c r="B38" s="1" t="s"/>
+      <c r="C38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" ht="28.429499999999997" customHeight="true">
+      <c r="A39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" ht="14.214749999999999" customHeight="true">
+      <c r="A40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" ht="14.214749999999999" customHeight="true">
+      <c r="A41" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" ht="14.214749999999999" customHeight="true">
+      <c r="A42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" ht="14.214749999999999" customHeight="true">
+      <c r="A43" s="1" t="s"/>
+      <c r="B43" s="1" t="s"/>
+      <c r="C43" s="1" t="s"/>
+      <c r="D43" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" ht="14.214749999999999" customHeight="true">
+      <c r="A44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="1" t="s"/>
+      <c r="D44" s="1" t="s"/>
+    </row>
+    <row r="45" ht="14.214749999999999" customHeight="true">
+      <c r="A45" s="1" t="s"/>
+      <c r="B45" s="1" t="s"/>
+      <c r="C45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" ht="14.214749999999999" customHeight="true">
+      <c r="A46" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="1" t="s"/>
+      <c r="D46" s="1" t="s"/>
+    </row>
+    <row r="47" ht="14.214749999999999" customHeight="true">
+      <c r="A47" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="1" t="s"/>
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="1" t="s"/>
+    </row>
+    <row r="48" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A47:D47"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.35982658959537" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="28.429499999999997" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s"/>
+      <c r="B14" s="1" t="s"/>
+      <c r="C14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="1" t="s"/>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s"/>
+      <c r="B19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="1" t="s"/>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s"/>
+      <c r="B29" s="1" t="s"/>
+      <c r="C29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s"/>
+      <c r="D30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s"/>
+      <c r="B31" s="1" t="s"/>
+      <c r="C31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s"/>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" ht="28.429499999999997" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true">
+      <c r="A36" s="1" t="s"/>
+      <c r="B36" s="1" t="s"/>
+      <c r="C36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="1" t="s"/>
+      <c r="C37" s="1" t="s"/>
+      <c r="D37" s="1" t="s"/>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A37:D37"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.56401734104045" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.35982658959537" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.08501926782273" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.76421001926782" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.214749999999999" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="14.214749999999999" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" ht="14.214749999999999" customHeight="true">
+      <c r="A5" s="1" t="s"/>
+      <c r="B5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s"/>
+      <c r="B6" s="1" t="s"/>
+      <c r="C6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+    </row>
+    <row r="7" ht="14.214749999999999" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s"/>
+      <c r="B8" s="1" t="s"/>
+      <c r="C8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" ht="14.214749999999999" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="14.214749999999999" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" ht="28.429499999999997" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" ht="14.214749999999999" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="28.429499999999997" customHeight="true">
+      <c r="A15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s"/>
+      <c r="D17" s="1" t="s"/>
+    </row>
+    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="1" t="s"/>
+      <c r="C18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s"/>
+    </row>
+    <row r="20" ht="14.214749999999999" customHeight="true">
+      <c r="A20" s="1" t="s"/>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" ht="14.214749999999999" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s"/>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s"/>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="28.429499999999997" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" ht="14.214749999999999" customHeight="true">
+      <c r="A36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true">
+      <c r="A38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" ht="28.429499999999997" customHeight="true">
+      <c r="A39" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B39" s="1" t="s"/>
+      <c r="C39" s="1" t="s"/>
+      <c r="D39" s="1" t="s"/>
+    </row>
+    <row r="40" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A39:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>